--- a/target/classes/Webtabledata.xlsx
+++ b/target/classes/Webtabledata.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sd47860\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dubey\eclipse-workspace\Testingbaba_maven\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BC722C-B7EB-4A9D-A839-83D1509A8479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7032"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>shivam dubey</t>
   </si>
@@ -63,12 +64,93 @@
   </si>
   <si>
     <t>ajay bhai</t>
+  </si>
+  <si>
+    <t>rajeev kumar</t>
+  </si>
+  <si>
+    <t>krajeev@gmail.com</t>
+  </si>
+  <si>
+    <t>kareem</t>
+  </si>
+  <si>
+    <t>raju</t>
+  </si>
+  <si>
+    <t>shashank</t>
+  </si>
+  <si>
+    <t>rahul</t>
+  </si>
+  <si>
+    <t>gaurav</t>
+  </si>
+  <si>
+    <t>abhishek</t>
+  </si>
+  <si>
+    <t>sameer</t>
+  </si>
+  <si>
+    <t>suman</t>
+  </si>
+  <si>
+    <t>shilpa</t>
+  </si>
+  <si>
+    <t>laxmi</t>
+  </si>
+  <si>
+    <t>aunty</t>
+  </si>
+  <si>
+    <t>shivam</t>
+  </si>
+  <si>
+    <t>Sanjay</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>Balaji</t>
+  </si>
+  <si>
+    <t>andrew@mavenlink.com</t>
+  </si>
+  <si>
+    <t>sanjay@svds.com</t>
+  </si>
+  <si>
+    <t>don@blockspring.com</t>
+  </si>
+  <si>
+    <t>paul@blockspring.com</t>
+  </si>
+  <si>
+    <t>mark.zuckerberg@facebook.com</t>
+  </si>
+  <si>
+    <t>cooper.lees@facebook.com</t>
+  </si>
+  <si>
+    <t>balaji@a16z.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,20 +472,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,7 +493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -419,7 +501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -427,7 +509,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -435,7 +517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -443,7 +525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -451,7 +533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -459,16 +541,214 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B4" r:id="rId7"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{F94653A0-163B-4237-92C3-64C1F75691FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/target/classes/Webtabledata.xlsx
+++ b/target/classes/Webtabledata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dubey\eclipse-workspace\Testingbaba_maven\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BC722C-B7EB-4A9D-A839-83D1509A8479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1943FE-3F81-4833-9374-C182F8DE40C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
